--- a/data/134/DEUSTATIS/old/National accounts - national disposable income quarters.xlsx
+++ b/data/134/DEUSTATIS/old/National accounts - national disposable income quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="58">
   <si>
     <t>National accounts - GDP, gross national income, national
 disposable income, net lending/net borrowing of the national
@@ -187,7 +187,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:44:07</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:46:58</t>
   </si>
 </sst>
 </file>
@@ -3813,13 +3813,13 @@
         <v>880.31</v>
       </c>
       <c r="DS7" t="n" s="10">
-        <v>847.16</v>
+        <v>847.11</v>
       </c>
       <c r="DT7" t="n" s="10">
-        <v>859.27</v>
-      </c>
-      <c r="DU7" t="s" s="10">
-        <v>43</v>
+        <v>863.22</v>
+      </c>
+      <c r="DU7" t="n" s="10">
+        <v>913.79</v>
       </c>
       <c r="DV7" t="s" s="10">
         <v>43</v>
@@ -4193,13 +4193,13 @@
         <v>52.441</v>
       </c>
       <c r="DS8" t="n" s="10">
-        <v>49.316</v>
+        <v>49.395</v>
       </c>
       <c r="DT8" t="n" s="10">
-        <v>51.104</v>
-      </c>
-      <c r="DU8" t="s" s="10">
-        <v>43</v>
+        <v>51.272</v>
+      </c>
+      <c r="DU8" t="n" s="10">
+        <v>51.654</v>
       </c>
       <c r="DV8" t="s" s="10">
         <v>43</v>
@@ -4573,13 +4573,13 @@
         <v>21.623</v>
       </c>
       <c r="DS9" t="n" s="10">
-        <v>21.0</v>
+        <v>21.005</v>
       </c>
       <c r="DT9" t="n" s="10">
         <v>37.397</v>
       </c>
-      <c r="DU9" t="s" s="10">
-        <v>43</v>
+      <c r="DU9" t="n" s="10">
+        <v>22.829</v>
       </c>
       <c r="DV9" t="s" s="10">
         <v>43</v>
@@ -4953,13 +4953,13 @@
         <v>911.128</v>
       </c>
       <c r="DS10" t="n" s="10">
-        <v>875.476</v>
+        <v>875.5</v>
       </c>
       <c r="DT10" t="n" s="10">
-        <v>872.977</v>
-      </c>
-      <c r="DU10" t="s" s="10">
-        <v>43</v>
+        <v>877.095</v>
+      </c>
+      <c r="DU10" t="n" s="10">
+        <v>942.615</v>
       </c>
       <c r="DV10" t="s" s="10">
         <v>43</v>
@@ -5333,13 +5333,13 @@
         <v>164.662</v>
       </c>
       <c r="DS11" t="n" s="10">
-        <v>167.922</v>
+        <v>168.115</v>
       </c>
       <c r="DT11" t="n" s="10">
-        <v>171.138</v>
-      </c>
-      <c r="DU11" t="s" s="10">
-        <v>43</v>
+        <v>171.345</v>
+      </c>
+      <c r="DU11" t="n" s="10">
+        <v>176.084</v>
       </c>
       <c r="DV11" t="s" s="10">
         <v>43</v>
@@ -5713,13 +5713,13 @@
         <v>746.466</v>
       </c>
       <c r="DS12" t="n" s="10">
-        <v>707.554</v>
+        <v>707.385</v>
       </c>
       <c r="DT12" t="n" s="10">
-        <v>701.839</v>
-      </c>
-      <c r="DU12" t="s" s="10">
-        <v>43</v>
+        <v>705.75</v>
+      </c>
+      <c r="DU12" t="n" s="10">
+        <v>766.531</v>
       </c>
       <c r="DV12" t="s" s="10">
         <v>43</v>
@@ -6093,13 +6093,13 @@
         <v>16.596</v>
       </c>
       <c r="DS13" t="n" s="10">
-        <v>18.048</v>
+        <v>21.609</v>
       </c>
       <c r="DT13" t="n" s="10">
-        <v>20.424</v>
-      </c>
-      <c r="DU13" t="s" s="10">
-        <v>43</v>
+        <v>20.891</v>
+      </c>
+      <c r="DU13" t="n" s="10">
+        <v>18.011</v>
       </c>
       <c r="DV13" t="s" s="10">
         <v>43</v>
@@ -6473,13 +6473,13 @@
         <v>30.759</v>
       </c>
       <c r="DS14" t="n" s="10">
-        <v>32.809</v>
+        <v>32.656</v>
       </c>
       <c r="DT14" t="n" s="10">
-        <v>29.743</v>
-      </c>
-      <c r="DU14" t="s" s="10">
-        <v>43</v>
+        <v>29.625</v>
+      </c>
+      <c r="DU14" t="n" s="10">
+        <v>31.772</v>
       </c>
       <c r="DV14" t="s" s="10">
         <v>43</v>
@@ -6853,13 +6853,13 @@
         <v>732.303</v>
       </c>
       <c r="DS15" t="n" s="10">
-        <v>692.793</v>
+        <v>696.338</v>
       </c>
       <c r="DT15" t="n" s="10">
-        <v>692.52</v>
-      </c>
-      <c r="DU15" t="s" s="10">
-        <v>43</v>
+        <v>697.016</v>
+      </c>
+      <c r="DU15" t="n" s="10">
+        <v>752.77</v>
       </c>
       <c r="DV15" t="s" s="10">
         <v>43</v>
@@ -7233,13 +7233,13 @@
         <v>90.928</v>
       </c>
       <c r="DS16" t="n" s="10">
-        <v>97.736</v>
+        <v>101.879</v>
       </c>
       <c r="DT16" t="n" s="10">
-        <v>75.34</v>
-      </c>
-      <c r="DU16" t="s" s="10">
-        <v>43</v>
+        <v>73.648</v>
+      </c>
+      <c r="DU16" t="n" s="10">
+        <v>87.465</v>
       </c>
       <c r="DV16" t="s" s="10">
         <v>43</v>
@@ -7613,13 +7613,13 @@
         <v>70.98</v>
       </c>
       <c r="DS17" t="n" s="10">
-        <v>70.29</v>
+        <v>74.272</v>
       </c>
       <c r="DT17" t="n" s="10">
-        <v>51.986</v>
-      </c>
-      <c r="DU17" t="s" s="10">
-        <v>43</v>
+        <v>51.851</v>
+      </c>
+      <c r="DU17" t="n" s="10">
+        <v>52.245</v>
       </c>
       <c r="DV17" t="s" s="10">
         <v>43</v>
@@ -7998,13 +7998,13 @@
         <v>864.209</v>
       </c>
       <c r="DS19" t="n" s="10">
-        <v>856.599</v>
+        <v>856.548</v>
       </c>
       <c r="DT19" t="n" s="10">
-        <v>869.624</v>
-      </c>
-      <c r="DU19" t="s" s="10">
-        <v>43</v>
+        <v>873.579</v>
+      </c>
+      <c r="DU19" t="n" s="10">
+        <v>910.982</v>
       </c>
       <c r="DV19" t="s" s="10">
         <v>43</v>
@@ -8378,13 +8378,13 @@
         <v>49.09</v>
       </c>
       <c r="DS20" t="n" s="10">
-        <v>50.847</v>
+        <v>50.928</v>
       </c>
       <c r="DT20" t="n" s="10">
-        <v>51.028</v>
-      </c>
-      <c r="DU20" t="s" s="10">
-        <v>43</v>
+        <v>51.196</v>
+      </c>
+      <c r="DU20" t="n" s="10">
+        <v>53.692</v>
       </c>
       <c r="DV20" t="s" s="10">
         <v>43</v>
@@ -8758,13 +8758,13 @@
         <v>25.988</v>
       </c>
       <c r="DS21" t="n" s="10">
-        <v>24.791</v>
+        <v>24.797</v>
       </c>
       <c r="DT21" t="n" s="10">
         <v>24.637</v>
       </c>
-      <c r="DU21" t="s" s="10">
-        <v>43</v>
+      <c r="DU21" t="n" s="10">
+        <v>26.084</v>
       </c>
       <c r="DV21" t="s" s="10">
         <v>43</v>
@@ -9138,13 +9138,13 @@
         <v>887.311</v>
       </c>
       <c r="DS22" t="n" s="10">
-        <v>882.655</v>
+        <v>882.679</v>
       </c>
       <c r="DT22" t="n" s="10">
-        <v>896.015</v>
-      </c>
-      <c r="DU22" t="s" s="10">
-        <v>43</v>
+        <v>900.138</v>
+      </c>
+      <c r="DU22" t="n" s="10">
+        <v>938.59</v>
       </c>
       <c r="DV22" t="s" s="10">
         <v>43</v>
@@ -9518,13 +9518,13 @@
         <v>165.249</v>
       </c>
       <c r="DS23" t="n" s="10">
-        <v>167.391</v>
+        <v>167.584</v>
       </c>
       <c r="DT23" t="n" s="10">
-        <v>170.98</v>
-      </c>
-      <c r="DU23" t="s" s="10">
-        <v>43</v>
+        <v>171.187</v>
+      </c>
+      <c r="DU23" t="n" s="10">
+        <v>176.15</v>
       </c>
       <c r="DV23" t="s" s="10">
         <v>43</v>
@@ -9898,13 +9898,13 @@
         <v>722.062</v>
       </c>
       <c r="DS24" t="n" s="10">
-        <v>715.264</v>
+        <v>715.095</v>
       </c>
       <c r="DT24" t="n" s="10">
-        <v>725.035</v>
-      </c>
-      <c r="DU24" t="s" s="10">
-        <v>43</v>
+        <v>728.951</v>
+      </c>
+      <c r="DU24" t="n" s="10">
+        <v>762.44</v>
       </c>
       <c r="DV24" t="s" s="10">
         <v>43</v>
@@ -10278,13 +10278,13 @@
         <v>18.828</v>
       </c>
       <c r="DS25" t="n" s="10">
-        <v>16.871</v>
+        <v>20.43</v>
       </c>
       <c r="DT25" t="n" s="10">
-        <v>17.372</v>
-      </c>
-      <c r="DU25" t="s" s="10">
-        <v>43</v>
+        <v>17.839</v>
+      </c>
+      <c r="DU25" t="n" s="10">
+        <v>19.966</v>
       </c>
       <c r="DV25" t="s" s="10">
         <v>43</v>
@@ -10658,13 +10658,13 @@
         <v>30.765</v>
       </c>
       <c r="DS26" t="n" s="10">
-        <v>30.105</v>
+        <v>29.952</v>
       </c>
       <c r="DT26" t="n" s="10">
-        <v>30.971</v>
-      </c>
-      <c r="DU26" t="s" s="10">
-        <v>43</v>
+        <v>30.853</v>
+      </c>
+      <c r="DU26" t="n" s="10">
+        <v>33.316</v>
       </c>
       <c r="DV26" t="s" s="10">
         <v>43</v>
@@ -11038,13 +11038,13 @@
         <v>710.125</v>
       </c>
       <c r="DS27" t="n" s="10">
-        <v>702.03</v>
+        <v>705.573</v>
       </c>
       <c r="DT27" t="n" s="10">
-        <v>711.436</v>
-      </c>
-      <c r="DU27" t="s" s="10">
-        <v>43</v>
+        <v>715.937</v>
+      </c>
+      <c r="DU27" t="n" s="10">
+        <v>749.09</v>
       </c>
       <c r="DV27" t="s" s="10">
         <v>43</v>
@@ -11058,181 +11058,181 @@
         <v>42</v>
       </c>
       <c r="C28" t="n" s="10">
-        <v>34.42</v>
+        <v>34.417</v>
       </c>
       <c r="D28" t="n" s="10">
-        <v>36.153</v>
+        <v>36.162</v>
       </c>
       <c r="E28" t="n" s="10">
-        <v>36.696</v>
+        <v>36.693</v>
       </c>
       <c r="F28" t="n" s="10">
-        <v>32.612</v>
+        <v>32.609</v>
       </c>
       <c r="G28" t="n" s="10">
-        <v>42.07</v>
+        <v>42.059</v>
       </c>
       <c r="H28" t="n" s="10">
         <v>36.589</v>
       </c>
       <c r="I28" t="n" s="10">
-        <v>36.126</v>
+        <v>36.138</v>
       </c>
       <c r="J28" t="n" s="10">
         <v>27.826</v>
       </c>
       <c r="K28" t="n" s="10">
-        <v>31.855</v>
+        <v>31.844</v>
       </c>
       <c r="L28" t="n" s="10">
         <v>30.684</v>
       </c>
       <c r="M28" t="n" s="10">
-        <v>28.615</v>
+        <v>28.627</v>
       </c>
       <c r="N28" t="n" s="10">
         <v>26.291</v>
       </c>
       <c r="O28" t="n" s="10">
-        <v>29.377</v>
+        <v>29.362</v>
       </c>
       <c r="P28" t="n" s="10">
-        <v>31.228</v>
+        <v>31.237</v>
       </c>
       <c r="Q28" t="n" s="10">
-        <v>29.95</v>
+        <v>29.959</v>
       </c>
       <c r="R28" t="n" s="10">
-        <v>30.133</v>
+        <v>30.13</v>
       </c>
       <c r="S28" t="n" s="10">
-        <v>36.599</v>
+        <v>36.562</v>
       </c>
       <c r="T28" t="n" s="10">
-        <v>31.88</v>
+        <v>31.892</v>
       </c>
       <c r="U28" t="n" s="10">
-        <v>30.069</v>
+        <v>30.081</v>
       </c>
       <c r="V28" t="n" s="10">
-        <v>29.913</v>
+        <v>29.926</v>
       </c>
       <c r="W28" t="n" s="10">
-        <v>28.298</v>
+        <v>28.245</v>
       </c>
       <c r="X28" t="n" s="10">
-        <v>27.461</v>
+        <v>27.483</v>
       </c>
       <c r="Y28" t="n" s="10">
-        <v>28.928</v>
+        <v>28.938</v>
       </c>
       <c r="Z28" t="n" s="10">
-        <v>32.266</v>
+        <v>32.288</v>
       </c>
       <c r="AA28" t="n" s="10">
-        <v>21.876</v>
+        <v>21.813</v>
       </c>
       <c r="AB28" t="n" s="10">
-        <v>32.254</v>
+        <v>32.279</v>
       </c>
       <c r="AC28" t="n" s="10">
-        <v>33.034</v>
+        <v>33.047</v>
       </c>
       <c r="AD28" t="n" s="10">
-        <v>35.896</v>
+        <v>35.921</v>
       </c>
       <c r="AE28" t="n" s="10">
-        <v>34.76</v>
+        <v>34.698</v>
       </c>
       <c r="AF28" t="n" s="10">
-        <v>34.446</v>
+        <v>34.47</v>
       </c>
       <c r="AG28" t="n" s="10">
-        <v>33.536</v>
+        <v>33.549</v>
       </c>
       <c r="AH28" t="n" s="10">
-        <v>33.533</v>
+        <v>33.558</v>
       </c>
       <c r="AI28" t="n" s="10">
-        <v>28.344</v>
+        <v>28.273</v>
       </c>
       <c r="AJ28" t="n" s="10">
-        <v>30.913</v>
+        <v>30.941</v>
       </c>
       <c r="AK28" t="n" s="10">
-        <v>30.459</v>
+        <v>30.474</v>
       </c>
       <c r="AL28" t="n" s="10">
-        <v>34.186</v>
+        <v>34.214</v>
       </c>
       <c r="AM28" t="n" s="10">
-        <v>35.717</v>
+        <v>35.645</v>
       </c>
       <c r="AN28" t="n" s="10">
-        <v>30.031</v>
+        <v>30.059</v>
       </c>
       <c r="AO28" t="n" s="10">
-        <v>27.102</v>
+        <v>27.118</v>
       </c>
       <c r="AP28" t="n" s="10">
-        <v>30.286</v>
+        <v>30.314</v>
       </c>
       <c r="AQ28" t="n" s="10">
-        <v>32.923</v>
+        <v>32.86</v>
       </c>
       <c r="AR28" t="n" s="10">
-        <v>28.056</v>
+        <v>28.081</v>
       </c>
       <c r="AS28" t="n" s="10">
-        <v>31.05</v>
+        <v>31.063</v>
       </c>
       <c r="AT28" t="n" s="10">
-        <v>31.836</v>
+        <v>31.862</v>
       </c>
       <c r="AU28" t="n" s="10">
-        <v>27.928</v>
+        <v>27.864</v>
       </c>
       <c r="AV28" t="n" s="10">
-        <v>30.341</v>
+        <v>30.366</v>
       </c>
       <c r="AW28" t="n" s="10">
-        <v>36.411</v>
+        <v>36.437</v>
       </c>
       <c r="AX28" t="n" s="10">
-        <v>28.527</v>
+        <v>28.54</v>
       </c>
       <c r="AY28" t="n" s="10">
-        <v>24.551</v>
+        <v>24.503</v>
       </c>
       <c r="AZ28" t="n" s="10">
-        <v>22.234</v>
+        <v>22.25</v>
       </c>
       <c r="BA28" t="n" s="10">
-        <v>26.917</v>
+        <v>26.946</v>
       </c>
       <c r="BB28" t="n" s="10">
-        <v>30.169</v>
+        <v>30.172</v>
       </c>
       <c r="BC28" t="n" s="10">
-        <v>38.766</v>
+        <v>38.733</v>
       </c>
       <c r="BD28" t="n" s="10">
-        <v>42.725</v>
+        <v>42.731</v>
       </c>
       <c r="BE28" t="n" s="10">
-        <v>41.262</v>
+        <v>41.281</v>
       </c>
       <c r="BF28" t="n" s="10">
-        <v>42.321</v>
+        <v>42.327</v>
       </c>
       <c r="BG28" t="n" s="10">
-        <v>33.329</v>
+        <v>33.303</v>
       </c>
       <c r="BH28" t="n" s="10">
-        <v>42.857</v>
+        <v>42.87</v>
       </c>
       <c r="BI28" t="n" s="10">
-        <v>40.757</v>
+        <v>40.77</v>
       </c>
       <c r="BJ28" t="n" s="10">
         <v>43.478</v>
@@ -11241,34 +11241,34 @@
         <v>50.298</v>
       </c>
       <c r="BL28" t="n" s="10">
-        <v>57.845</v>
+        <v>57.832</v>
       </c>
       <c r="BM28" t="n" s="10">
-        <v>57.535</v>
+        <v>57.548</v>
       </c>
       <c r="BN28" t="n" s="10">
         <v>61.922</v>
       </c>
       <c r="BO28" t="n" s="10">
-        <v>74.103</v>
+        <v>74.107</v>
       </c>
       <c r="BP28" t="n" s="10">
-        <v>71.171</v>
+        <v>71.162</v>
       </c>
       <c r="BQ28" t="n" s="10">
-        <v>70.198</v>
+        <v>70.202</v>
       </c>
       <c r="BR28" t="n" s="10">
-        <v>69.392</v>
+        <v>69.395</v>
       </c>
       <c r="BS28" t="n" s="10">
         <v>68.675</v>
       </c>
       <c r="BT28" t="n" s="10">
-        <v>70.267</v>
+        <v>70.254</v>
       </c>
       <c r="BU28" t="n" s="10">
-        <v>61.006</v>
+        <v>61.019</v>
       </c>
       <c r="BV28" t="n" s="10">
         <v>49.191</v>
@@ -11298,46 +11298,46 @@
         <v>58.676</v>
       </c>
       <c r="CE28" t="n" s="10">
-        <v>66.792</v>
+        <v>66.789</v>
       </c>
       <c r="CF28" t="n" s="10">
-        <v>66.396</v>
+        <v>66.393</v>
       </c>
       <c r="CG28" t="n" s="10">
-        <v>71.909</v>
+        <v>71.906</v>
       </c>
       <c r="CH28" t="n" s="10">
-        <v>68.086</v>
+        <v>68.097</v>
       </c>
       <c r="CI28" t="n" s="10">
-        <v>62.348</v>
+        <v>62.365</v>
       </c>
       <c r="CJ28" t="n" s="10">
-        <v>59.995</v>
+        <v>59.985</v>
       </c>
       <c r="CK28" t="n" s="10">
-        <v>63.263</v>
+        <v>63.253</v>
       </c>
       <c r="CL28" t="n" s="10">
-        <v>58.34</v>
+        <v>58.343</v>
       </c>
       <c r="CM28" t="n" s="10">
-        <v>49.159</v>
+        <v>49.174</v>
       </c>
       <c r="CN28" t="n" s="10">
-        <v>64.042</v>
+        <v>64.028</v>
       </c>
       <c r="CO28" t="n" s="10">
-        <v>62.313</v>
+        <v>62.298</v>
       </c>
       <c r="CP28" t="n" s="10">
-        <v>63.216</v>
+        <v>63.231</v>
       </c>
       <c r="CQ28" t="n" s="10">
-        <v>67.924</v>
+        <v>67.939</v>
       </c>
       <c r="CR28" t="n" s="10">
-        <v>69.606</v>
+        <v>69.591</v>
       </c>
       <c r="CS28" t="n" s="10">
         <v>73.766</v>
@@ -11346,85 +11346,85 @@
         <v>76.397</v>
       </c>
       <c r="CU28" t="n" s="10">
-        <v>72.087</v>
+        <v>72.102</v>
       </c>
       <c r="CV28" t="n" s="10">
-        <v>77.57</v>
+        <v>77.555</v>
       </c>
       <c r="CW28" t="n" s="10">
-        <v>85.208</v>
+        <v>85.193</v>
       </c>
       <c r="CX28" t="n" s="10">
-        <v>81.729</v>
+        <v>81.744</v>
       </c>
       <c r="CY28" t="n" s="10">
-        <v>80.733</v>
+        <v>80.789</v>
       </c>
       <c r="CZ28" t="n" s="10">
-        <v>92.71</v>
+        <v>92.677</v>
       </c>
       <c r="DA28" t="n" s="10">
-        <v>80.427</v>
+        <v>80.378</v>
       </c>
       <c r="DB28" t="n" s="10">
-        <v>85.485</v>
+        <v>85.511</v>
       </c>
       <c r="DC28" t="n" s="10">
-        <v>88.955</v>
+        <v>89.065</v>
       </c>
       <c r="DD28" t="n" s="10">
-        <v>85.53</v>
+        <v>85.443</v>
       </c>
       <c r="DE28" t="n" s="10">
-        <v>95.362</v>
+        <v>95.289</v>
       </c>
       <c r="DF28" t="n" s="10">
-        <v>96.364</v>
+        <v>96.414</v>
       </c>
       <c r="DG28" t="n" s="10">
-        <v>96.749</v>
+        <v>96.94</v>
       </c>
       <c r="DH28" t="n" s="10">
-        <v>104.211</v>
+        <v>104.044</v>
       </c>
       <c r="DI28" t="n" s="10">
-        <v>97.74</v>
+        <v>97.665</v>
       </c>
       <c r="DJ28" t="n" s="10">
-        <v>100.736</v>
+        <v>100.787</v>
       </c>
       <c r="DK28" t="n" s="10">
-        <v>105.212</v>
+        <v>105.494</v>
       </c>
       <c r="DL28" t="n" s="10">
-        <v>96.005</v>
+        <v>95.762</v>
       </c>
       <c r="DM28" t="n" s="10">
-        <v>98.272</v>
+        <v>98.188</v>
       </c>
       <c r="DN28" t="n" s="10">
-        <v>95.684</v>
+        <v>95.729</v>
       </c>
       <c r="DO28" t="n" s="10">
-        <v>90.301</v>
+        <v>90.668</v>
       </c>
       <c r="DP28" t="n" s="10">
-        <v>45.959</v>
+        <v>45.621</v>
       </c>
       <c r="DQ28" t="n" s="10">
-        <v>67.435</v>
+        <v>67.362</v>
       </c>
       <c r="DR28" t="n" s="10">
-        <v>88.335</v>
+        <v>88.378</v>
       </c>
       <c r="DS28" t="n" s="10">
-        <v>93.149</v>
+        <v>97.761</v>
       </c>
       <c r="DT28" t="n" s="10">
-        <v>88.385</v>
-      </c>
-      <c r="DU28" t="s" s="10">
-        <v>43</v>
+        <v>86.169</v>
+      </c>
+      <c r="DU28" t="n" s="10">
+        <v>84.607</v>
       </c>
       <c r="DV28" t="s" s="10">
         <v>43</v>
@@ -11798,13 +11798,13 @@
         <v>75.333</v>
       </c>
       <c r="DS29" t="n" s="10">
-        <v>61.637</v>
+        <v>65.609</v>
       </c>
       <c r="DT29" t="n" s="10">
-        <v>57.446</v>
-      </c>
-      <c r="DU29" t="s" s="10">
-        <v>43</v>
+        <v>57.325</v>
+      </c>
+      <c r="DU29" t="n" s="10">
+        <v>56.193</v>
       </c>
       <c r="DV29" t="s" s="10">
         <v>43</v>
@@ -12141,55 +12141,55 @@
         <v>808.4</v>
       </c>
       <c r="DE31" t="n" s="10">
-        <v>822.446</v>
+        <v>822.44</v>
       </c>
       <c r="DF31" t="n" s="10">
-        <v>829.392</v>
+        <v>829.378</v>
       </c>
       <c r="DG31" t="n" s="10">
-        <v>831.575</v>
+        <v>831.568</v>
       </c>
       <c r="DH31" t="n" s="10">
-        <v>842.755</v>
+        <v>842.942</v>
       </c>
       <c r="DI31" t="n" s="10">
-        <v>841.815</v>
+        <v>841.813</v>
       </c>
       <c r="DJ31" t="n" s="10">
-        <v>850.22</v>
+        <v>849.847</v>
       </c>
       <c r="DK31" t="n" s="10">
-        <v>860.098</v>
+        <v>859.391</v>
       </c>
       <c r="DL31" t="n" s="10">
-        <v>863.781</v>
+        <v>866.119</v>
       </c>
       <c r="DM31" t="n" s="10">
-        <v>875.983</v>
+        <v>874.896</v>
       </c>
       <c r="DN31" t="n" s="10">
-        <v>871.905</v>
+        <v>870.506</v>
       </c>
       <c r="DO31" t="n" s="10">
-        <v>868.518</v>
+        <v>867.652</v>
       </c>
       <c r="DP31" t="n" s="10">
-        <v>785.853</v>
+        <v>792.316</v>
       </c>
       <c r="DQ31" t="n" s="10">
-        <v>853.247</v>
+        <v>850.148</v>
       </c>
       <c r="DR31" t="n" s="10">
-        <v>858.415</v>
+        <v>856.359</v>
       </c>
       <c r="DS31" t="n" s="10">
-        <v>856.859</v>
+        <v>856.685</v>
       </c>
       <c r="DT31" t="n" s="10">
-        <v>869.548</v>
-      </c>
-      <c r="DU31" t="s" s="10">
-        <v>43</v>
+        <v>881.844</v>
+      </c>
+      <c r="DU31" t="n" s="10">
+        <v>909.357</v>
       </c>
       <c r="DV31" t="s" s="10">
         <v>43</v>
@@ -12536,40 +12536,40 @@
         <v>58.955</v>
       </c>
       <c r="DJ32" t="n" s="10">
-        <v>60.504</v>
+        <v>60.501</v>
       </c>
       <c r="DK32" t="n" s="10">
-        <v>59.885</v>
+        <v>59.874</v>
       </c>
       <c r="DL32" t="n" s="10">
-        <v>59.784</v>
+        <v>59.761</v>
       </c>
       <c r="DM32" t="n" s="10">
-        <v>57.248</v>
+        <v>57.285</v>
       </c>
       <c r="DN32" t="n" s="10">
-        <v>54.148</v>
+        <v>54.184</v>
       </c>
       <c r="DO32" t="n" s="10">
-        <v>51.393</v>
+        <v>51.258</v>
       </c>
       <c r="DP32" t="n" s="10">
-        <v>48.075</v>
+        <v>48.138</v>
       </c>
       <c r="DQ32" t="n" s="10">
-        <v>48.027</v>
+        <v>48.099</v>
       </c>
       <c r="DR32" t="n" s="10">
-        <v>48.425</v>
+        <v>48.497</v>
       </c>
       <c r="DS32" t="n" s="10">
-        <v>50.363</v>
+        <v>50.198</v>
       </c>
       <c r="DT32" t="n" s="10">
-        <v>52.065</v>
-      </c>
-      <c r="DU32" t="s" s="10">
-        <v>43</v>
+        <v>52.243</v>
+      </c>
+      <c r="DU32" t="n" s="10">
+        <v>53.87</v>
       </c>
       <c r="DV32" t="s" s="10">
         <v>43</v>
@@ -12742,76 +12742,76 @@
         <v>32.406</v>
       </c>
       <c r="BD33" t="n" s="10">
-        <v>31.667</v>
+        <v>31.669</v>
       </c>
       <c r="BE33" t="n" s="10">
-        <v>31.98</v>
+        <v>31.985</v>
       </c>
       <c r="BF33" t="n" s="10">
-        <v>32.984</v>
+        <v>32.988</v>
       </c>
       <c r="BG33" t="n" s="10">
-        <v>35.601</v>
+        <v>35.553</v>
       </c>
       <c r="BH33" t="n" s="10">
-        <v>36.141</v>
+        <v>36.115</v>
       </c>
       <c r="BI33" t="n" s="10">
-        <v>37.966</v>
+        <v>38.071</v>
       </c>
       <c r="BJ33" t="n" s="10">
-        <v>39.046</v>
+        <v>39.304</v>
       </c>
       <c r="BK33" t="n" s="10">
-        <v>39.67</v>
+        <v>39.168</v>
       </c>
       <c r="BL33" t="n" s="10">
-        <v>40.865</v>
+        <v>40.731</v>
       </c>
       <c r="BM33" t="n" s="10">
-        <v>42.438</v>
+        <v>42.846</v>
       </c>
       <c r="BN33" t="n" s="10">
-        <v>45.735</v>
+        <v>46.301</v>
       </c>
       <c r="BO33" t="n" s="10">
-        <v>52.091</v>
+        <v>51.204</v>
       </c>
       <c r="BP33" t="n" s="10">
-        <v>55.753</v>
+        <v>55.55</v>
       </c>
       <c r="BQ33" t="n" s="10">
-        <v>52.157</v>
+        <v>52.675</v>
       </c>
       <c r="BR33" t="n" s="10">
-        <v>50.222</v>
+        <v>50.586</v>
       </c>
       <c r="BS33" t="n" s="10">
-        <v>48.28</v>
+        <v>47.778</v>
       </c>
       <c r="BT33" t="n" s="10">
-        <v>46.015</v>
+        <v>45.881</v>
       </c>
       <c r="BU33" t="n" s="10">
-        <v>41.297</v>
+        <v>41.511</v>
       </c>
       <c r="BV33" t="n" s="10">
-        <v>38.628</v>
+        <v>38.686</v>
       </c>
       <c r="BW33" t="n" s="10">
-        <v>34.343</v>
+        <v>34.294</v>
       </c>
       <c r="BX33" t="n" s="10">
-        <v>31.624</v>
+        <v>31.599</v>
       </c>
       <c r="BY33" t="n" s="10">
-        <v>31.14</v>
+        <v>31.145</v>
       </c>
       <c r="BZ33" t="n" s="10">
-        <v>31.773</v>
+        <v>31.777</v>
       </c>
       <c r="CA33" t="n" s="10">
-        <v>35.22</v>
+        <v>35.221</v>
       </c>
       <c r="CB33" t="n" s="10">
         <v>36.376</v>
@@ -12889,67 +12889,67 @@
         <v>33.344</v>
       </c>
       <c r="DA33" t="n" s="10">
-        <v>34.425</v>
+        <v>34.426</v>
       </c>
       <c r="DB33" t="n" s="10">
-        <v>33.679</v>
+        <v>33.68</v>
       </c>
       <c r="DC33" t="n" s="10">
-        <v>33.277</v>
+        <v>33.278</v>
       </c>
       <c r="DD33" t="n" s="10">
-        <v>32.888</v>
+        <v>32.874</v>
       </c>
       <c r="DE33" t="n" s="10">
-        <v>32.409</v>
+        <v>32.41</v>
       </c>
       <c r="DF33" t="n" s="10">
-        <v>31.861</v>
+        <v>31.891</v>
       </c>
       <c r="DG33" t="n" s="10">
-        <v>31.575</v>
+        <v>31.632</v>
       </c>
       <c r="DH33" t="n" s="10">
-        <v>32.596</v>
+        <v>32.42</v>
       </c>
       <c r="DI33" t="n" s="10">
-        <v>30.435</v>
+        <v>30.493</v>
       </c>
       <c r="DJ33" t="n" s="10">
-        <v>29.919</v>
+        <v>30.002</v>
       </c>
       <c r="DK33" t="n" s="10">
-        <v>29.581</v>
+        <v>29.685</v>
       </c>
       <c r="DL33" t="n" s="10">
-        <v>33.471</v>
+        <v>33.131</v>
       </c>
       <c r="DM33" t="n" s="10">
-        <v>27.903</v>
+        <v>28.073</v>
       </c>
       <c r="DN33" t="n" s="10">
-        <v>26.952</v>
+        <v>27.1</v>
       </c>
       <c r="DO33" t="n" s="10">
-        <v>26.231</v>
+        <v>26.317</v>
       </c>
       <c r="DP33" t="n" s="10">
-        <v>24.08</v>
+        <v>23.938</v>
       </c>
       <c r="DQ33" t="n" s="10">
-        <v>25.934</v>
+        <v>26.101</v>
       </c>
       <c r="DR33" t="n" s="10">
-        <v>25.505</v>
+        <v>25.66</v>
       </c>
       <c r="DS33" t="n" s="10">
-        <v>24.882</v>
+        <v>24.992</v>
       </c>
       <c r="DT33" t="n" s="10">
-        <v>27.134</v>
-      </c>
-      <c r="DU33" t="s" s="10">
-        <v>43</v>
+        <v>26.861</v>
+      </c>
+      <c r="DU33" t="n" s="10">
+        <v>25.45</v>
       </c>
       <c r="DV33" t="s" s="10">
         <v>43</v>
@@ -13122,76 +13122,76 @@
         <v>565.117</v>
       </c>
       <c r="BD34" t="n" s="10">
-        <v>568.554</v>
+        <v>568.552</v>
       </c>
       <c r="BE34" t="n" s="10">
-        <v>569.434</v>
+        <v>569.429</v>
       </c>
       <c r="BF34" t="n" s="10">
-        <v>573.282</v>
+        <v>573.278</v>
       </c>
       <c r="BG34" t="n" s="10">
-        <v>568.134</v>
+        <v>568.182</v>
       </c>
       <c r="BH34" t="n" s="10">
-        <v>576.261</v>
+        <v>576.287</v>
       </c>
       <c r="BI34" t="n" s="10">
-        <v>579.841</v>
+        <v>579.736</v>
       </c>
       <c r="BJ34" t="n" s="10">
-        <v>583.812</v>
+        <v>583.554</v>
       </c>
       <c r="BK34" t="n" s="10">
-        <v>593.667</v>
+        <v>594.169</v>
       </c>
       <c r="BL34" t="n" s="10">
-        <v>601.47</v>
+        <v>601.604</v>
       </c>
       <c r="BM34" t="n" s="10">
-        <v>609.973</v>
+        <v>609.565</v>
       </c>
       <c r="BN34" t="n" s="10">
-        <v>621.169</v>
+        <v>620.603</v>
       </c>
       <c r="BO34" t="n" s="10">
-        <v>626.832</v>
+        <v>627.719</v>
       </c>
       <c r="BP34" t="n" s="10">
-        <v>626.961</v>
+        <v>627.164</v>
       </c>
       <c r="BQ34" t="n" s="10">
-        <v>636.495</v>
+        <v>635.977</v>
       </c>
       <c r="BR34" t="n" s="10">
-        <v>643.535</v>
+        <v>643.171</v>
       </c>
       <c r="BS34" t="n" s="10">
-        <v>643.771</v>
+        <v>644.273</v>
       </c>
       <c r="BT34" t="n" s="10">
-        <v>648.906</v>
+        <v>649.04</v>
       </c>
       <c r="BU34" t="n" s="10">
-        <v>642.538</v>
+        <v>642.324</v>
       </c>
       <c r="BV34" t="n" s="10">
-        <v>632.534</v>
+        <v>632.476</v>
       </c>
       <c r="BW34" t="n" s="10">
-        <v>620.677</v>
+        <v>620.726</v>
       </c>
       <c r="BX34" t="n" s="10">
-        <v>619.504</v>
+        <v>619.529</v>
       </c>
       <c r="BY34" t="n" s="10">
-        <v>626.997</v>
+        <v>626.992</v>
       </c>
       <c r="BZ34" t="n" s="10">
-        <v>634.069</v>
+        <v>634.065</v>
       </c>
       <c r="CA34" t="n" s="10">
-        <v>640.658</v>
+        <v>640.657</v>
       </c>
       <c r="CB34" t="n" s="10">
         <v>650.828</v>
@@ -13269,67 +13269,67 @@
         <v>804.98</v>
       </c>
       <c r="DA34" t="n" s="10">
-        <v>804.489</v>
+        <v>804.488</v>
       </c>
       <c r="DB34" t="n" s="10">
-        <v>811.834</v>
+        <v>811.833</v>
       </c>
       <c r="DC34" t="n" s="10">
-        <v>824.421</v>
+        <v>824.42</v>
       </c>
       <c r="DD34" t="n" s="10">
-        <v>827.163</v>
+        <v>827.177</v>
       </c>
       <c r="DE34" t="n" s="10">
-        <v>842.41</v>
+        <v>842.403</v>
       </c>
       <c r="DF34" t="n" s="10">
-        <v>850.205</v>
+        <v>850.161</v>
       </c>
       <c r="DG34" t="n" s="10">
-        <v>855.792</v>
+        <v>855.728</v>
       </c>
       <c r="DH34" t="n" s="10">
-        <v>867.885</v>
+        <v>868.248</v>
       </c>
       <c r="DI34" t="n" s="10">
-        <v>870.335</v>
+        <v>870.275</v>
       </c>
       <c r="DJ34" t="n" s="10">
-        <v>880.805</v>
+        <v>880.346</v>
       </c>
       <c r="DK34" t="n" s="10">
-        <v>890.402</v>
+        <v>889.58</v>
       </c>
       <c r="DL34" t="n" s="10">
-        <v>890.094</v>
+        <v>892.749</v>
       </c>
       <c r="DM34" t="n" s="10">
-        <v>905.328</v>
+        <v>904.108</v>
       </c>
       <c r="DN34" t="n" s="10">
-        <v>899.101</v>
+        <v>897.59</v>
       </c>
       <c r="DO34" t="n" s="10">
-        <v>893.68</v>
+        <v>892.593</v>
       </c>
       <c r="DP34" t="n" s="10">
-        <v>809.848</v>
+        <v>816.516</v>
       </c>
       <c r="DQ34" t="n" s="10">
-        <v>875.34</v>
+        <v>872.146</v>
       </c>
       <c r="DR34" t="n" s="10">
-        <v>881.335</v>
+        <v>879.196</v>
       </c>
       <c r="DS34" t="n" s="10">
-        <v>882.34</v>
+        <v>881.891</v>
       </c>
       <c r="DT34" t="n" s="10">
-        <v>894.479</v>
-      </c>
-      <c r="DU34" t="s" s="10">
-        <v>43</v>
+        <v>907.226</v>
+      </c>
+      <c r="DU34" t="n" s="10">
+        <v>937.777</v>
       </c>
       <c r="DV34" t="s" s="10">
         <v>43</v>
@@ -13670,46 +13670,46 @@
         <v>149.571</v>
       </c>
       <c r="DH35" t="n" s="10">
-        <v>151.412</v>
+        <v>151.413</v>
       </c>
       <c r="DI35" t="n" s="10">
-        <v>153.533</v>
+        <v>153.537</v>
       </c>
       <c r="DJ35" t="n" s="10">
-        <v>155.447</v>
+        <v>155.456</v>
       </c>
       <c r="DK35" t="n" s="10">
-        <v>157.299</v>
+        <v>157.287</v>
       </c>
       <c r="DL35" t="n" s="10">
-        <v>158.875</v>
+        <v>158.834</v>
       </c>
       <c r="DM35" t="n" s="10">
-        <v>160.735</v>
+        <v>160.734</v>
       </c>
       <c r="DN35" t="n" s="10">
-        <v>162.186</v>
+        <v>162.353</v>
       </c>
       <c r="DO35" t="n" s="10">
-        <v>163.554</v>
+        <v>163.544</v>
       </c>
       <c r="DP35" t="n" s="10">
-        <v>164.652</v>
+        <v>164.387</v>
       </c>
       <c r="DQ35" t="n" s="10">
-        <v>164.815</v>
+        <v>164.839</v>
       </c>
       <c r="DR35" t="n" s="10">
-        <v>165.47</v>
+        <v>165.777</v>
       </c>
       <c r="DS35" t="n" s="10">
-        <v>167.36</v>
+        <v>167.539</v>
       </c>
       <c r="DT35" t="n" s="10">
-        <v>170.417</v>
-      </c>
-      <c r="DU35" t="s" s="10">
-        <v>43</v>
+        <v>170.29</v>
+      </c>
+      <c r="DU35" t="n" s="10">
+        <v>176.548</v>
       </c>
       <c r="DV35" t="s" s="10">
         <v>43</v>
@@ -13882,76 +13882,76 @@
         <v>469.239</v>
       </c>
       <c r="BD36" t="n" s="10">
-        <v>472.067</v>
+        <v>472.065</v>
       </c>
       <c r="BE36" t="n" s="10">
-        <v>472.462</v>
+        <v>472.457</v>
       </c>
       <c r="BF36" t="n" s="10">
-        <v>475.893</v>
+        <v>475.889</v>
       </c>
       <c r="BG36" t="n" s="10">
-        <v>470.366</v>
+        <v>470.414</v>
       </c>
       <c r="BH36" t="n" s="10">
-        <v>478.234</v>
+        <v>478.26</v>
       </c>
       <c r="BI36" t="n" s="10">
-        <v>481.41</v>
+        <v>481.305</v>
       </c>
       <c r="BJ36" t="n" s="10">
-        <v>484.789</v>
+        <v>484.531</v>
       </c>
       <c r="BK36" t="n" s="10">
-        <v>494.359</v>
+        <v>494.861</v>
       </c>
       <c r="BL36" t="n" s="10">
-        <v>501.341</v>
+        <v>501.475</v>
       </c>
       <c r="BM36" t="n" s="10">
-        <v>508.715</v>
+        <v>508.307</v>
       </c>
       <c r="BN36" t="n" s="10">
-        <v>518.707</v>
+        <v>518.141</v>
       </c>
       <c r="BO36" t="n" s="10">
-        <v>522.576</v>
+        <v>523.463</v>
       </c>
       <c r="BP36" t="n" s="10">
-        <v>521.64</v>
+        <v>521.843</v>
       </c>
       <c r="BQ36" t="n" s="10">
-        <v>530.237</v>
+        <v>529.719</v>
       </c>
       <c r="BR36" t="n" s="10">
-        <v>536.119</v>
+        <v>535.755</v>
       </c>
       <c r="BS36" t="n" s="10">
-        <v>535.325</v>
+        <v>535.827</v>
       </c>
       <c r="BT36" t="n" s="10">
-        <v>539.124</v>
+        <v>539.258</v>
       </c>
       <c r="BU36" t="n" s="10">
-        <v>531.541</v>
+        <v>531.327</v>
       </c>
       <c r="BV36" t="n" s="10">
-        <v>520.93</v>
+        <v>520.872</v>
       </c>
       <c r="BW36" t="n" s="10">
-        <v>508.431</v>
+        <v>508.48</v>
       </c>
       <c r="BX36" t="n" s="10">
-        <v>506.847</v>
+        <v>506.872</v>
       </c>
       <c r="BY36" t="n" s="10">
-        <v>513.847</v>
+        <v>513.842</v>
       </c>
       <c r="BZ36" t="n" s="10">
-        <v>520.088</v>
+        <v>520.084</v>
       </c>
       <c r="CA36" t="n" s="10">
-        <v>526.305</v>
+        <v>526.304</v>
       </c>
       <c r="CB36" t="n" s="10">
         <v>535.713</v>
@@ -14029,67 +14029,67 @@
         <v>665.927</v>
       </c>
       <c r="DA36" t="n" s="10">
-        <v>664.222</v>
+        <v>664.221</v>
       </c>
       <c r="DB36" t="n" s="10">
-        <v>670.321</v>
+        <v>670.32</v>
       </c>
       <c r="DC36" t="n" s="10">
-        <v>681.395</v>
+        <v>681.394</v>
       </c>
       <c r="DD36" t="n" s="10">
-        <v>682.619</v>
+        <v>682.633</v>
       </c>
       <c r="DE36" t="n" s="10">
-        <v>696.365</v>
+        <v>696.358</v>
       </c>
       <c r="DF36" t="n" s="10">
-        <v>702.396</v>
+        <v>702.352</v>
       </c>
       <c r="DG36" t="n" s="10">
-        <v>706.221</v>
+        <v>706.157</v>
       </c>
       <c r="DH36" t="n" s="10">
-        <v>716.473</v>
+        <v>716.835</v>
       </c>
       <c r="DI36" t="n" s="10">
-        <v>716.802</v>
+        <v>716.738</v>
       </c>
       <c r="DJ36" t="n" s="10">
-        <v>725.358</v>
+        <v>724.89</v>
       </c>
       <c r="DK36" t="n" s="10">
-        <v>733.103</v>
+        <v>732.293</v>
       </c>
       <c r="DL36" t="n" s="10">
-        <v>731.219</v>
+        <v>733.915</v>
       </c>
       <c r="DM36" t="n" s="10">
-        <v>744.593</v>
+        <v>743.374</v>
       </c>
       <c r="DN36" t="n" s="10">
-        <v>736.915</v>
+        <v>735.237</v>
       </c>
       <c r="DO36" t="n" s="10">
-        <v>730.126</v>
+        <v>729.049</v>
       </c>
       <c r="DP36" t="n" s="10">
-        <v>645.196</v>
+        <v>652.129</v>
       </c>
       <c r="DQ36" t="n" s="10">
-        <v>710.525</v>
+        <v>707.307</v>
       </c>
       <c r="DR36" t="n" s="10">
-        <v>715.865</v>
+        <v>713.419</v>
       </c>
       <c r="DS36" t="n" s="10">
-        <v>714.98</v>
+        <v>714.352</v>
       </c>
       <c r="DT36" t="n" s="10">
-        <v>724.062</v>
-      </c>
-      <c r="DU36" t="s" s="10">
-        <v>43</v>
+        <v>736.936</v>
+      </c>
+      <c r="DU36" t="n" s="10">
+        <v>761.229</v>
       </c>
       <c r="DV36" t="s" s="10">
         <v>43</v>
@@ -14274,139 +14274,139 @@
         <v>10.291</v>
       </c>
       <c r="BH37" t="n" s="10">
-        <v>10.685</v>
+        <v>10.683</v>
       </c>
       <c r="BI37" t="n" s="10">
-        <v>11.009</v>
+        <v>11.006</v>
       </c>
       <c r="BJ37" t="n" s="10">
-        <v>11.182</v>
+        <v>11.181</v>
       </c>
       <c r="BK37" t="n" s="10">
-        <v>10.454</v>
+        <v>10.498</v>
       </c>
       <c r="BL37" t="n" s="10">
-        <v>9.924</v>
+        <v>9.922</v>
       </c>
       <c r="BM37" t="n" s="10">
-        <v>10.138</v>
+        <v>10.044</v>
       </c>
       <c r="BN37" t="n" s="10">
-        <v>10.405</v>
+        <v>10.227</v>
       </c>
       <c r="BO37" t="n" s="10">
-        <v>10.214</v>
+        <v>10.778</v>
       </c>
       <c r="BP37" t="n" s="10">
-        <v>11.334</v>
+        <v>11.156</v>
       </c>
       <c r="BQ37" t="n" s="10">
-        <v>10.975</v>
+        <v>10.658</v>
       </c>
       <c r="BR37" t="n" s="10">
-        <v>11.02</v>
+        <v>10.558</v>
       </c>
       <c r="BS37" t="n" s="10">
-        <v>12.187</v>
+        <v>13.49</v>
       </c>
       <c r="BT37" t="n" s="10">
-        <v>11.054</v>
+        <v>10.592</v>
       </c>
       <c r="BU37" t="n" s="10">
-        <v>10.611</v>
+        <v>10.189</v>
       </c>
       <c r="BV37" t="n" s="10">
-        <v>10.392</v>
+        <v>9.999</v>
       </c>
       <c r="BW37" t="n" s="10">
-        <v>13.191</v>
+        <v>14.324</v>
       </c>
       <c r="BX37" t="n" s="10">
-        <v>9.584</v>
+        <v>9.19</v>
       </c>
       <c r="BY37" t="n" s="10">
-        <v>9.453</v>
+        <v>9.201</v>
       </c>
       <c r="BZ37" t="n" s="10">
-        <v>9.403</v>
+        <v>9.294</v>
       </c>
       <c r="CA37" t="n" s="10">
-        <v>9.747</v>
+        <v>10.119</v>
       </c>
       <c r="CB37" t="n" s="10">
-        <v>10.5</v>
+        <v>10.39</v>
       </c>
       <c r="CC37" t="n" s="10">
-        <v>11.614</v>
+        <v>11.555</v>
       </c>
       <c r="CD37" t="n" s="10">
-        <v>12.365</v>
+        <v>12.361</v>
       </c>
       <c r="CE37" t="n" s="10">
-        <v>12.097</v>
+        <v>12.123</v>
       </c>
       <c r="CF37" t="n" s="10">
-        <v>13.443</v>
+        <v>13.446</v>
       </c>
       <c r="CG37" t="n" s="10">
-        <v>13.078</v>
+        <v>13.087</v>
       </c>
       <c r="CH37" t="n" s="10">
-        <v>13.371</v>
+        <v>13.348</v>
       </c>
       <c r="CI37" t="n" s="10">
-        <v>13.757</v>
+        <v>13.751</v>
       </c>
       <c r="CJ37" t="n" s="10">
-        <v>13.594</v>
+        <v>13.612</v>
       </c>
       <c r="CK37" t="n" s="10">
-        <v>13.694</v>
+        <v>13.719</v>
       </c>
       <c r="CL37" t="n" s="10">
-        <v>13.385</v>
+        <v>13.347</v>
       </c>
       <c r="CM37" t="n" s="10">
-        <v>16.883</v>
+        <v>16.872</v>
       </c>
       <c r="CN37" t="n" s="10">
-        <v>13.692</v>
+        <v>13.715</v>
       </c>
       <c r="CO37" t="n" s="10">
-        <v>14.767</v>
+        <v>14.783</v>
       </c>
       <c r="CP37" t="n" s="10">
-        <v>15.242</v>
+        <v>15.221</v>
       </c>
       <c r="CQ37" t="n" s="10">
-        <v>15.847</v>
+        <v>15.841</v>
       </c>
       <c r="CR37" t="n" s="10">
-        <v>15.61</v>
+        <v>15.619</v>
       </c>
       <c r="CS37" t="n" s="10">
-        <v>15.552</v>
+        <v>15.555</v>
       </c>
       <c r="CT37" t="n" s="10">
-        <v>15.863</v>
+        <v>15.862</v>
       </c>
       <c r="CU37" t="n" s="10">
-        <v>16.821</v>
+        <v>16.82</v>
       </c>
       <c r="CV37" t="n" s="10">
-        <v>19.256</v>
+        <v>19.253</v>
       </c>
       <c r="CW37" t="n" s="10">
-        <v>17.373</v>
+        <v>17.374</v>
       </c>
       <c r="CX37" t="n" s="10">
-        <v>17.53</v>
+        <v>17.531</v>
       </c>
       <c r="CY37" t="n" s="10">
         <v>16.096</v>
       </c>
       <c r="CZ37" t="n" s="10">
-        <v>16.796</v>
+        <v>16.795</v>
       </c>
       <c r="DA37" t="n" s="10">
         <v>16.69</v>
@@ -14430,46 +14430,46 @@
         <v>17.374</v>
       </c>
       <c r="DH37" t="n" s="10">
-        <v>17.779</v>
+        <v>17.781</v>
       </c>
       <c r="DI37" t="n" s="10">
-        <v>17.767</v>
+        <v>17.772</v>
       </c>
       <c r="DJ37" t="n" s="10">
-        <v>18.118</v>
+        <v>18.12</v>
       </c>
       <c r="DK37" t="n" s="10">
-        <v>18.391</v>
+        <v>18.334</v>
       </c>
       <c r="DL37" t="n" s="10">
-        <v>19.022</v>
+        <v>19.013</v>
       </c>
       <c r="DM37" t="n" s="10">
-        <v>18.239</v>
+        <v>18.361</v>
       </c>
       <c r="DN37" t="n" s="10">
-        <v>18.333</v>
+        <v>18.568</v>
       </c>
       <c r="DO37" t="n" s="10">
-        <v>18.749</v>
+        <v>18.151</v>
       </c>
       <c r="DP37" t="n" s="10">
-        <v>17.176</v>
+        <v>17.44</v>
       </c>
       <c r="DQ37" t="n" s="10">
-        <v>18.523</v>
+        <v>18.667</v>
       </c>
       <c r="DR37" t="n" s="10">
-        <v>18.151</v>
+        <v>18.584</v>
       </c>
       <c r="DS37" t="n" s="10">
-        <v>16.838</v>
+        <v>19.387</v>
       </c>
       <c r="DT37" t="n" s="10">
-        <v>18.525</v>
-      </c>
-      <c r="DU37" t="s" s="10">
-        <v>43</v>
+        <v>19.403</v>
+      </c>
+      <c r="DU37" t="n" s="10">
+        <v>19.666</v>
       </c>
       <c r="DV37" t="s" s="10">
         <v>43</v>
@@ -14819,37 +14819,37 @@
         <v>29.802</v>
       </c>
       <c r="DK38" t="n" s="10">
-        <v>29.042</v>
+        <v>29.047</v>
       </c>
       <c r="DL38" t="n" s="10">
-        <v>29.813</v>
+        <v>29.819</v>
       </c>
       <c r="DM38" t="n" s="10">
-        <v>29.451</v>
+        <v>29.441</v>
       </c>
       <c r="DN38" t="n" s="10">
-        <v>29.509</v>
+        <v>29.483</v>
       </c>
       <c r="DO38" t="n" s="10">
-        <v>30.149</v>
+        <v>30.187</v>
       </c>
       <c r="DP38" t="n" s="10">
-        <v>29.739</v>
+        <v>29.874</v>
       </c>
       <c r="DQ38" t="n" s="10">
-        <v>30.66</v>
+        <v>30.487</v>
       </c>
       <c r="DR38" t="n" s="10">
-        <v>30.582</v>
+        <v>30.529</v>
       </c>
       <c r="DS38" t="n" s="10">
-        <v>30.559</v>
+        <v>30.49</v>
       </c>
       <c r="DT38" t="n" s="10">
-        <v>31.174</v>
-      </c>
-      <c r="DU38" t="s" s="10">
-        <v>43</v>
+        <v>31.256</v>
+      </c>
+      <c r="DU38" t="n" s="10">
+        <v>32.454</v>
       </c>
       <c r="DV38" t="s" s="10">
         <v>43</v>
@@ -15022,214 +15022,214 @@
         <v>462.266</v>
       </c>
       <c r="BD39" t="n" s="10">
-        <v>464.75</v>
+        <v>464.748</v>
       </c>
       <c r="BE39" t="n" s="10">
-        <v>465.118</v>
+        <v>465.113</v>
       </c>
       <c r="BF39" t="n" s="10">
-        <v>468.862</v>
+        <v>468.858</v>
       </c>
       <c r="BG39" t="n" s="10">
-        <v>462.102</v>
+        <v>462.15</v>
       </c>
       <c r="BH39" t="n" s="10">
-        <v>470.79</v>
+        <v>470.814</v>
       </c>
       <c r="BI39" t="n" s="10">
-        <v>474.244</v>
+        <v>474.136</v>
       </c>
       <c r="BJ39" t="n" s="10">
-        <v>477.764</v>
+        <v>477.505</v>
       </c>
       <c r="BK39" t="n" s="10">
-        <v>487.717</v>
+        <v>488.263</v>
       </c>
       <c r="BL39" t="n" s="10">
-        <v>494.132</v>
+        <v>494.264</v>
       </c>
       <c r="BM39" t="n" s="10">
-        <v>501.015</v>
+        <v>500.513</v>
       </c>
       <c r="BN39" t="n" s="10">
-        <v>511.255</v>
+        <v>510.511</v>
       </c>
       <c r="BO39" t="n" s="10">
-        <v>515.179</v>
+        <v>516.63</v>
       </c>
       <c r="BP39" t="n" s="10">
-        <v>514.102</v>
+        <v>514.127</v>
       </c>
       <c r="BQ39" t="n" s="10">
-        <v>522.086</v>
+        <v>521.251</v>
       </c>
       <c r="BR39" t="n" s="10">
-        <v>527.938</v>
+        <v>527.112</v>
       </c>
       <c r="BS39" t="n" s="10">
-        <v>526.495</v>
+        <v>528.3</v>
       </c>
       <c r="BT39" t="n" s="10">
-        <v>530.279</v>
+        <v>529.951</v>
       </c>
       <c r="BU39" t="n" s="10">
-        <v>523.243</v>
+        <v>522.607</v>
       </c>
       <c r="BV39" t="n" s="10">
-        <v>512.503</v>
+        <v>512.052</v>
       </c>
       <c r="BW39" t="n" s="10">
-        <v>499.755</v>
+        <v>500.937</v>
       </c>
       <c r="BX39" t="n" s="10">
-        <v>500.097</v>
+        <v>499.728</v>
       </c>
       <c r="BY39" t="n" s="10">
-        <v>506.365</v>
+        <v>506.108</v>
       </c>
       <c r="BZ39" t="n" s="10">
-        <v>510.763</v>
+        <v>510.65</v>
       </c>
       <c r="CA39" t="n" s="10">
-        <v>517.315</v>
+        <v>517.686</v>
       </c>
       <c r="CB39" t="n" s="10">
-        <v>526.034</v>
+        <v>525.924</v>
       </c>
       <c r="CC39" t="n" s="10">
-        <v>531.855</v>
+        <v>531.796</v>
       </c>
       <c r="CD39" t="n" s="10">
-        <v>544.216</v>
+        <v>544.212</v>
       </c>
       <c r="CE39" t="n" s="10">
-        <v>555.275</v>
+        <v>555.301</v>
       </c>
       <c r="CF39" t="n" s="10">
-        <v>560.571</v>
+        <v>560.574</v>
       </c>
       <c r="CG39" t="n" s="10">
-        <v>567.012</v>
+        <v>567.021</v>
       </c>
       <c r="CH39" t="n" s="10">
-        <v>568.645</v>
+        <v>568.622</v>
       </c>
       <c r="CI39" t="n" s="10">
-        <v>571.384</v>
+        <v>571.378</v>
       </c>
       <c r="CJ39" t="n" s="10">
-        <v>567.216</v>
+        <v>567.234</v>
       </c>
       <c r="CK39" t="n" s="10">
-        <v>569.687</v>
+        <v>569.712</v>
       </c>
       <c r="CL39" t="n" s="10">
-        <v>571.857</v>
+        <v>571.819</v>
       </c>
       <c r="CM39" t="n" s="10">
-        <v>569.231</v>
+        <v>569.22</v>
       </c>
       <c r="CN39" t="n" s="10">
-        <v>583.145</v>
+        <v>583.168</v>
       </c>
       <c r="CO39" t="n" s="10">
-        <v>584.363</v>
+        <v>584.379</v>
       </c>
       <c r="CP39" t="n" s="10">
-        <v>587.72</v>
+        <v>587.699</v>
       </c>
       <c r="CQ39" t="n" s="10">
-        <v>599.707</v>
+        <v>599.701</v>
       </c>
       <c r="CR39" t="n" s="10">
-        <v>601.096</v>
+        <v>601.105</v>
       </c>
       <c r="CS39" t="n" s="10">
-        <v>608.011</v>
+        <v>608.014</v>
       </c>
       <c r="CT39" t="n" s="10">
-        <v>615.427</v>
+        <v>615.426</v>
       </c>
       <c r="CU39" t="n" s="10">
-        <v>617.123</v>
+        <v>617.122</v>
       </c>
       <c r="CV39" t="n" s="10">
-        <v>624.363</v>
+        <v>624.36</v>
       </c>
       <c r="CW39" t="n" s="10">
-        <v>635.372</v>
+        <v>635.373</v>
       </c>
       <c r="CX39" t="n" s="10">
-        <v>638.809</v>
+        <v>638.81</v>
       </c>
       <c r="CY39" t="n" s="10">
         <v>644.086</v>
       </c>
       <c r="CZ39" t="n" s="10">
-        <v>660.757</v>
+        <v>660.756</v>
       </c>
       <c r="DA39" t="n" s="10">
-        <v>651.699</v>
+        <v>651.698</v>
       </c>
       <c r="DB39" t="n" s="10">
-        <v>661.392</v>
+        <v>661.391</v>
       </c>
       <c r="DC39" t="n" s="10">
-        <v>669.775</v>
+        <v>669.774</v>
       </c>
       <c r="DD39" t="n" s="10">
-        <v>669.857</v>
+        <v>669.871</v>
       </c>
       <c r="DE39" t="n" s="10">
-        <v>686.73</v>
+        <v>686.723</v>
       </c>
       <c r="DF39" t="n" s="10">
-        <v>690.949</v>
+        <v>690.905</v>
       </c>
       <c r="DG39" t="n" s="10">
-        <v>696.056</v>
+        <v>695.992</v>
       </c>
       <c r="DH39" t="n" s="10">
-        <v>706.8</v>
+        <v>707.164</v>
       </c>
       <c r="DI39" t="n" s="10">
-        <v>704.918</v>
+        <v>704.859</v>
       </c>
       <c r="DJ39" t="n" s="10">
-        <v>713.674</v>
+        <v>713.208</v>
       </c>
       <c r="DK39" t="n" s="10">
-        <v>722.452</v>
+        <v>721.58</v>
       </c>
       <c r="DL39" t="n" s="10">
-        <v>720.428</v>
+        <v>723.109</v>
       </c>
       <c r="DM39" t="n" s="10">
-        <v>733.381</v>
+        <v>732.294</v>
       </c>
       <c r="DN39" t="n" s="10">
-        <v>725.739</v>
+        <v>724.322</v>
       </c>
       <c r="DO39" t="n" s="10">
-        <v>718.726</v>
+        <v>717.013</v>
       </c>
       <c r="DP39" t="n" s="10">
-        <v>632.633</v>
+        <v>639.695</v>
       </c>
       <c r="DQ39" t="n" s="10">
-        <v>698.388</v>
+        <v>695.487</v>
       </c>
       <c r="DR39" t="n" s="10">
-        <v>703.434</v>
+        <v>701.474</v>
       </c>
       <c r="DS39" t="n" s="10">
-        <v>701.259</v>
+        <v>703.249</v>
       </c>
       <c r="DT39" t="n" s="10">
-        <v>711.413</v>
-      </c>
-      <c r="DU39" t="s" s="10">
-        <v>43</v>
+        <v>725.083</v>
+      </c>
+      <c r="DU39" t="n" s="10">
+        <v>748.441</v>
       </c>
       <c r="DV39" t="s" s="10">
         <v>43</v>
@@ -15402,214 +15402,214 @@
         <v>39.482</v>
       </c>
       <c r="BD40" t="n" s="10">
-        <v>41.577</v>
+        <v>41.575</v>
       </c>
       <c r="BE40" t="n" s="10">
-        <v>41.287</v>
+        <v>41.282</v>
       </c>
       <c r="BF40" t="n" s="10">
-        <v>42.063</v>
+        <v>42.059</v>
       </c>
       <c r="BG40" t="n" s="10">
-        <v>35.076</v>
+        <v>35.124</v>
       </c>
       <c r="BH40" t="n" s="10">
-        <v>39.802</v>
+        <v>39.826</v>
       </c>
       <c r="BI40" t="n" s="10">
-        <v>41.709</v>
+        <v>41.601</v>
       </c>
       <c r="BJ40" t="n" s="10">
-        <v>44.617</v>
+        <v>44.358</v>
       </c>
       <c r="BK40" t="n" s="10">
-        <v>49.072</v>
+        <v>49.618</v>
       </c>
       <c r="BL40" t="n" s="10">
-        <v>54.713</v>
+        <v>54.845</v>
       </c>
       <c r="BM40" t="n" s="10">
-        <v>59.448</v>
+        <v>58.946</v>
       </c>
       <c r="BN40" t="n" s="10">
-        <v>65.753</v>
+        <v>65.009</v>
       </c>
       <c r="BO40" t="n" s="10">
-        <v>70.346</v>
+        <v>71.797</v>
       </c>
       <c r="BP40" t="n" s="10">
-        <v>67.032</v>
+        <v>67.057</v>
       </c>
       <c r="BQ40" t="n" s="10">
-        <v>71.769</v>
+        <v>70.934</v>
       </c>
       <c r="BR40" t="n" s="10">
-        <v>73.561</v>
+        <v>72.735</v>
       </c>
       <c r="BS40" t="n" s="10">
-        <v>68.911</v>
+        <v>70.716</v>
       </c>
       <c r="BT40" t="n" s="10">
-        <v>68.371</v>
+        <v>68.043</v>
       </c>
       <c r="BU40" t="n" s="10">
-        <v>59.629</v>
+        <v>58.993</v>
       </c>
       <c r="BV40" t="n" s="10">
-        <v>48.625</v>
+        <v>48.174</v>
       </c>
       <c r="BW40" t="n" s="10">
-        <v>33.523</v>
+        <v>34.705</v>
       </c>
       <c r="BX40" t="n" s="10">
-        <v>33.207</v>
+        <v>32.838</v>
       </c>
       <c r="BY40" t="n" s="10">
-        <v>38.806</v>
+        <v>38.549</v>
       </c>
       <c r="BZ40" t="n" s="10">
-        <v>41.813</v>
+        <v>41.7</v>
       </c>
       <c r="CA40" t="n" s="10">
-        <v>44.68</v>
+        <v>45.051</v>
       </c>
       <c r="CB40" t="n" s="10">
-        <v>50.542</v>
+        <v>50.432</v>
       </c>
       <c r="CC40" t="n" s="10">
-        <v>50.953</v>
+        <v>50.894</v>
       </c>
       <c r="CD40" t="n" s="10">
-        <v>58.3</v>
+        <v>58.296</v>
       </c>
       <c r="CE40" t="n" s="10">
-        <v>67.202</v>
+        <v>67.228</v>
       </c>
       <c r="CF40" t="n" s="10">
-        <v>67.048</v>
+        <v>67.051</v>
       </c>
       <c r="CG40" t="n" s="10">
-        <v>70.003</v>
+        <v>70.012</v>
       </c>
       <c r="CH40" t="n" s="10">
-        <v>68.323</v>
+        <v>68.3</v>
       </c>
       <c r="CI40" t="n" s="10">
-        <v>65.189</v>
+        <v>65.183</v>
       </c>
       <c r="CJ40" t="n" s="10">
-        <v>60.011</v>
+        <v>60.029</v>
       </c>
       <c r="CK40" t="n" s="10">
-        <v>60.515</v>
+        <v>60.54</v>
       </c>
       <c r="CL40" t="n" s="10">
-        <v>58.125</v>
+        <v>58.087</v>
       </c>
       <c r="CM40" t="n" s="10">
-        <v>53.446</v>
+        <v>53.435</v>
       </c>
       <c r="CN40" t="n" s="10">
-        <v>62.883</v>
+        <v>62.906</v>
       </c>
       <c r="CO40" t="n" s="10">
-        <v>60.368</v>
+        <v>60.384</v>
       </c>
       <c r="CP40" t="n" s="10">
-        <v>62.791</v>
+        <v>62.77</v>
       </c>
       <c r="CQ40" t="n" s="10">
-        <v>70.667</v>
+        <v>70.661</v>
       </c>
       <c r="CR40" t="n" s="10">
-        <v>69.077</v>
+        <v>69.086</v>
       </c>
       <c r="CS40" t="n" s="10">
-        <v>71.89</v>
+        <v>71.893</v>
       </c>
       <c r="CT40" t="n" s="10">
-        <v>75.73</v>
+        <v>75.729</v>
       </c>
       <c r="CU40" t="n" s="10">
-        <v>74.427</v>
+        <v>74.426</v>
       </c>
       <c r="CV40" t="n" s="10">
-        <v>77.689</v>
+        <v>77.686</v>
       </c>
       <c r="CW40" t="n" s="10">
-        <v>83.309</v>
+        <v>83.31</v>
       </c>
       <c r="CX40" t="n" s="10">
-        <v>81.317</v>
+        <v>81.318</v>
       </c>
       <c r="CY40" t="n" s="10">
         <v>82.13</v>
       </c>
       <c r="CZ40" t="n" s="10">
-        <v>92.371</v>
+        <v>92.37</v>
       </c>
       <c r="DA40" t="n" s="10">
-        <v>80.273</v>
+        <v>80.272</v>
       </c>
       <c r="DB40" t="n" s="10">
-        <v>85.169</v>
+        <v>85.168</v>
       </c>
       <c r="DC40" t="n" s="10">
-        <v>88.872</v>
+        <v>88.871</v>
       </c>
       <c r="DD40" t="n" s="10">
-        <v>85.424</v>
+        <v>85.438</v>
       </c>
       <c r="DE40" t="n" s="10">
-        <v>95.85</v>
+        <v>95.842</v>
       </c>
       <c r="DF40" t="n" s="10">
-        <v>96.315</v>
+        <v>96.268</v>
       </c>
       <c r="DG40" t="n" s="10">
-        <v>96.251</v>
+        <v>96.186</v>
       </c>
       <c r="DH40" t="n" s="10">
-        <v>103.389</v>
+        <v>103.791</v>
       </c>
       <c r="DI40" t="n" s="10">
-        <v>99.079</v>
+        <v>99.018</v>
       </c>
       <c r="DJ40" t="n" s="10">
-        <v>100.815</v>
+        <v>100.23</v>
       </c>
       <c r="DK40" t="n" s="10">
-        <v>102.964</v>
+        <v>101.919</v>
       </c>
       <c r="DL40" t="n" s="10">
-        <v>97.268</v>
+        <v>100.519</v>
       </c>
       <c r="DM40" t="n" s="10">
-        <v>102.079</v>
+        <v>101.086</v>
       </c>
       <c r="DN40" t="n" s="10">
-        <v>92.485</v>
+        <v>90.305</v>
       </c>
       <c r="DO40" t="n" s="10">
-        <v>84.766</v>
+        <v>82.002</v>
       </c>
       <c r="DP40" t="n" s="10">
-        <v>53.199</v>
+        <v>62.185</v>
       </c>
       <c r="DQ40" t="n" s="10">
-        <v>71.647</v>
+        <v>68.84</v>
       </c>
       <c r="DR40" t="n" s="10">
-        <v>81.433</v>
+        <v>78.21</v>
       </c>
       <c r="DS40" t="n" s="10">
-        <v>86.673</v>
+        <v>87.442</v>
       </c>
       <c r="DT40" t="n" s="10">
-        <v>94.284</v>
-      </c>
-      <c r="DU40" t="s" s="10">
-        <v>43</v>
+        <v>103.546</v>
+      </c>
+      <c r="DU40" t="n" s="10">
+        <v>84.504</v>
       </c>
       <c r="DV40" t="s" s="10">
         <v>43</v>
@@ -15623,373 +15623,373 @@
         <v>42</v>
       </c>
       <c r="C41" t="n" s="10">
-        <v>-10.132</v>
+        <v>-10.323</v>
       </c>
       <c r="D41" t="n" s="10">
-        <v>-7.331</v>
+        <v>-7.31</v>
       </c>
       <c r="E41" t="n" s="10">
-        <v>-6.11</v>
+        <v>-6.126</v>
       </c>
       <c r="F41" t="n" s="10">
-        <v>-4.886</v>
+        <v>-5.026</v>
       </c>
       <c r="G41" t="n" s="10">
-        <v>-5.679</v>
+        <v>-5.633</v>
       </c>
       <c r="H41" t="n" s="10">
-        <v>-5.965</v>
+        <v>-6.047</v>
       </c>
       <c r="I41" t="n" s="10">
-        <v>-3.616</v>
+        <v>-3.611</v>
       </c>
       <c r="J41" t="n" s="10">
-        <v>-6.077</v>
+        <v>-6.031</v>
       </c>
       <c r="K41" t="n" s="10">
-        <v>-3.574</v>
+        <v>-3.628</v>
       </c>
       <c r="L41" t="n" s="10">
-        <v>-4.459</v>
+        <v>-4.409</v>
       </c>
       <c r="M41" t="n" s="10">
-        <v>-5.847</v>
+        <v>-5.81</v>
       </c>
       <c r="N41" t="n" s="10">
-        <v>-2.8</v>
+        <v>-2.657</v>
       </c>
       <c r="O41" t="n" s="10">
-        <v>-6.709</v>
+        <v>-6.673</v>
       </c>
       <c r="P41" t="n" s="10">
-        <v>-5.551</v>
+        <v>-5.494</v>
       </c>
       <c r="Q41" t="n" s="10">
-        <v>-6.914</v>
+        <v>-6.865</v>
       </c>
       <c r="R41" t="n" s="10">
-        <v>-9.096</v>
+        <v>-9.137</v>
       </c>
       <c r="S41" t="n" s="10">
-        <v>-6.445</v>
+        <v>-6.362</v>
       </c>
       <c r="T41" t="n" s="10">
-        <v>-7.455</v>
+        <v>-7.495</v>
       </c>
       <c r="U41" t="n" s="10">
-        <v>-7.209</v>
+        <v>-7.3</v>
       </c>
       <c r="V41" t="n" s="10">
-        <v>-6.511</v>
+        <v>-6.552</v>
       </c>
       <c r="W41" t="n" s="10">
-        <v>-3.833</v>
+        <v>-3.798</v>
       </c>
       <c r="X41" t="n" s="10">
-        <v>-5.789</v>
+        <v>-5.875</v>
       </c>
       <c r="Y41" t="n" s="10">
-        <v>-4.633</v>
+        <v>-4.646</v>
       </c>
       <c r="Z41" t="n" s="10">
-        <v>-4.165</v>
+        <v>-4.224</v>
       </c>
       <c r="AA41" t="n" s="10">
-        <v>-7.172</v>
+        <v>-7.378</v>
       </c>
       <c r="AB41" t="n" s="10">
-        <v>-2.236</v>
+        <v>-2.14</v>
       </c>
       <c r="AC41" t="n" s="10">
-        <v>-1.875</v>
+        <v>-1.893</v>
       </c>
       <c r="AD41" t="n" s="10">
-        <v>-1.718</v>
+        <v>-1.806</v>
       </c>
       <c r="AE41" t="n" s="10">
-        <v>-1.723</v>
+        <v>-1.694</v>
       </c>
       <c r="AF41" t="n" s="10">
-        <v>-4.189</v>
+        <v>-4.286</v>
       </c>
       <c r="AG41" t="n" s="10">
-        <v>-3.345</v>
+        <v>-3.318</v>
       </c>
       <c r="AH41" t="n" s="10">
-        <v>-4.649</v>
+        <v>-4.571</v>
       </c>
       <c r="AI41" t="n" s="10">
-        <v>-8.068</v>
+        <v>-8.092</v>
       </c>
       <c r="AJ41" t="n" s="10">
-        <v>-5.831</v>
+        <v>-5.739</v>
       </c>
       <c r="AK41" t="n" s="10">
-        <v>-7.267</v>
+        <v>-7.244</v>
       </c>
       <c r="AL41" t="n" s="10">
-        <v>-4.317</v>
+        <v>-4.13</v>
       </c>
       <c r="AM41" t="n" s="10">
-        <v>-6.399</v>
+        <v>-6.143</v>
       </c>
       <c r="AN41" t="n" s="10">
-        <v>-10.139</v>
+        <v>-9.94</v>
       </c>
       <c r="AO41" t="n" s="10">
-        <v>-12.557</v>
+        <v>-13.271</v>
       </c>
       <c r="AP41" t="n" s="10">
-        <v>-11.08</v>
+        <v>-10.947</v>
       </c>
       <c r="AQ41" t="n" s="10">
-        <v>-8.948</v>
+        <v>-8.608</v>
       </c>
       <c r="AR41" t="n" s="10">
-        <v>-6.275</v>
+        <v>-5.95</v>
       </c>
       <c r="AS41" t="n" s="10">
-        <v>-3.838</v>
+        <v>-5.237</v>
       </c>
       <c r="AT41" t="n" s="10">
-        <v>4.082</v>
+        <v>4.77</v>
       </c>
       <c r="AU41" t="n" s="10">
-        <v>5.164</v>
+        <v>5.232</v>
       </c>
       <c r="AV41" t="n" s="10">
-        <v>9.6</v>
+        <v>9.66</v>
       </c>
       <c r="AW41" t="n" s="10">
-        <v>13.333</v>
+        <v>12.402</v>
       </c>
       <c r="AX41" t="n" s="10">
-        <v>6.37</v>
+        <v>7.25</v>
       </c>
       <c r="AY41" t="n" s="10">
-        <v>4.604</v>
+        <v>4.427</v>
       </c>
       <c r="AZ41" t="n" s="10">
-        <v>4.349</v>
+        <v>4.04</v>
       </c>
       <c r="BA41" t="n" s="10">
-        <v>10.198</v>
+        <v>9.938</v>
       </c>
       <c r="BB41" t="n" s="10">
-        <v>17.908</v>
+        <v>18.407</v>
       </c>
       <c r="BC41" t="n" s="10">
-        <v>24.197</v>
+        <v>24.112</v>
       </c>
       <c r="BD41" t="n" s="10">
-        <v>27.501</v>
+        <v>27.382</v>
       </c>
       <c r="BE41" t="n" s="10">
-        <v>25.044</v>
+        <v>25.041</v>
       </c>
       <c r="BF41" t="n" s="10">
-        <v>28.268</v>
+        <v>28.661</v>
       </c>
       <c r="BG41" t="n" s="10">
-        <v>24.852</v>
+        <v>24.752</v>
       </c>
       <c r="BH41" t="n" s="10">
-        <v>27.153</v>
+        <v>27.36</v>
       </c>
       <c r="BI41" t="n" s="10">
-        <v>28.167</v>
+        <v>28.143</v>
       </c>
       <c r="BJ41" t="n" s="10">
-        <v>25.724</v>
+        <v>25.501</v>
       </c>
       <c r="BK41" t="n" s="10">
-        <v>29.281</v>
+        <v>29.981</v>
       </c>
       <c r="BL41" t="n" s="10">
-        <v>30.962</v>
+        <v>31.0</v>
       </c>
       <c r="BM41" t="n" s="10">
-        <v>35.016</v>
+        <v>34.464</v>
       </c>
       <c r="BN41" t="n" s="10">
-        <v>42.652</v>
+        <v>41.853</v>
       </c>
       <c r="BO41" t="n" s="10">
-        <v>40.908</v>
+        <v>42.381</v>
       </c>
       <c r="BP41" t="n" s="10">
-        <v>38.465</v>
+        <v>38.382</v>
       </c>
       <c r="BQ41" t="n" s="10">
-        <v>46.281</v>
+        <v>45.359</v>
       </c>
       <c r="BR41" t="n" s="10">
-        <v>45.455</v>
+        <v>44.567</v>
       </c>
       <c r="BS41" t="n" s="10">
-        <v>37.777</v>
+        <v>39.473</v>
       </c>
       <c r="BT41" t="n" s="10">
-        <v>38.032</v>
+        <v>37.907</v>
       </c>
       <c r="BU41" t="n" s="10">
-        <v>35.241</v>
+        <v>34.617</v>
       </c>
       <c r="BV41" t="n" s="10">
-        <v>28.471</v>
+        <v>27.92</v>
       </c>
       <c r="BW41" t="n" s="10">
-        <v>25.124</v>
+        <v>26.34</v>
       </c>
       <c r="BX41" t="n" s="10">
-        <v>32.605</v>
+        <v>32.135</v>
       </c>
       <c r="BY41" t="n" s="10">
-        <v>41.269</v>
+        <v>41.039</v>
       </c>
       <c r="BZ41" t="n" s="10">
-        <v>41.275</v>
+        <v>41.223</v>
       </c>
       <c r="CA41" t="n" s="10">
-        <v>36.659</v>
+        <v>37.042</v>
       </c>
       <c r="CB41" t="n" s="10">
-        <v>36.809</v>
+        <v>36.771</v>
       </c>
       <c r="CC41" t="n" s="10">
-        <v>36.286</v>
+        <v>36.287</v>
       </c>
       <c r="CD41" t="n" s="10">
-        <v>41.728</v>
+        <v>41.897</v>
       </c>
       <c r="CE41" t="n" s="10">
-        <v>41.688</v>
+        <v>41.787</v>
       </c>
       <c r="CF41" t="n" s="10">
-        <v>38.86</v>
+        <v>38.944</v>
       </c>
       <c r="CG41" t="n" s="10">
-        <v>41.871</v>
+        <v>41.945</v>
       </c>
       <c r="CH41" t="n" s="10">
-        <v>42.338</v>
+        <v>42.314</v>
       </c>
       <c r="CI41" t="n" s="10">
-        <v>48.43</v>
+        <v>48.574</v>
       </c>
       <c r="CJ41" t="n" s="10">
-        <v>49.2</v>
+        <v>49.161</v>
       </c>
       <c r="CK41" t="n" s="10">
-        <v>50.434</v>
+        <v>50.369</v>
       </c>
       <c r="CL41" t="n" s="10">
-        <v>45.742</v>
+        <v>45.627</v>
       </c>
       <c r="CM41" t="n" s="10">
-        <v>41.603</v>
+        <v>41.428</v>
       </c>
       <c r="CN41" t="n" s="10">
-        <v>47.467</v>
+        <v>47.515</v>
       </c>
       <c r="CO41" t="n" s="10">
-        <v>43.003</v>
+        <v>43.004</v>
       </c>
       <c r="CP41" t="n" s="10">
-        <v>47.777</v>
+        <v>47.723</v>
       </c>
       <c r="CQ41" t="n" s="10">
-        <v>50.689</v>
+        <v>50.657</v>
       </c>
       <c r="CR41" t="n" s="10">
-        <v>49.019</v>
+        <v>48.896</v>
       </c>
       <c r="CS41" t="n" s="10">
-        <v>55.103</v>
+        <v>54.973</v>
       </c>
       <c r="CT41" t="n" s="10">
-        <v>58.526</v>
+        <v>58.784</v>
       </c>
       <c r="CU41" t="n" s="10">
-        <v>61.031</v>
+        <v>60.935</v>
       </c>
       <c r="CV41" t="n" s="10">
-        <v>65.0</v>
+        <v>64.66</v>
       </c>
       <c r="CW41" t="n" s="10">
-        <v>68.212</v>
+        <v>67.86</v>
       </c>
       <c r="CX41" t="n" s="10">
-        <v>66.018</v>
+        <v>67.243</v>
       </c>
       <c r="CY41" t="n" s="10">
-        <v>64.771</v>
+        <v>64.294</v>
       </c>
       <c r="CZ41" t="n" s="10">
-        <v>77.795</v>
+        <v>77.487</v>
       </c>
       <c r="DA41" t="n" s="10">
-        <v>63.022</v>
+        <v>62.432</v>
       </c>
       <c r="DB41" t="n" s="10">
-        <v>66.148</v>
+        <v>68.326</v>
       </c>
       <c r="DC41" t="n" s="10">
-        <v>65.293</v>
+        <v>64.467</v>
       </c>
       <c r="DD41" t="n" s="10">
-        <v>56.951</v>
+        <v>56.128</v>
       </c>
       <c r="DE41" t="n" s="10">
-        <v>69.188</v>
+        <v>68.205</v>
       </c>
       <c r="DF41" t="n" s="10">
-        <v>63.203</v>
+        <v>66.973</v>
       </c>
       <c r="DG41" t="n" s="10">
-        <v>75.046</v>
+        <v>71.922</v>
       </c>
       <c r="DH41" t="n" s="10">
-        <v>71.485</v>
+        <v>71.248</v>
       </c>
       <c r="DI41" t="n" s="10">
-        <v>58.561</v>
+        <v>57.393</v>
       </c>
       <c r="DJ41" t="n" s="10">
-        <v>60.134</v>
+        <v>65.66</v>
       </c>
       <c r="DK41" t="n" s="10">
-        <v>72.249</v>
+        <v>67.672</v>
       </c>
       <c r="DL41" t="n" s="10">
-        <v>60.36</v>
+        <v>59.897</v>
       </c>
       <c r="DM41" t="n" s="10">
-        <v>66.776</v>
+        <v>65.937</v>
       </c>
       <c r="DN41" t="n" s="10">
-        <v>56.445</v>
+        <v>62.098</v>
       </c>
       <c r="DO41" t="n" s="10">
-        <v>60.058</v>
+        <v>56.175</v>
       </c>
       <c r="DP41" t="n" s="10">
-        <v>43.761</v>
+        <v>42.684</v>
       </c>
       <c r="DQ41" t="n" s="10">
-        <v>60.62</v>
+        <v>60.473</v>
       </c>
       <c r="DR41" t="n" s="10">
-        <v>62.08</v>
+        <v>67.724</v>
       </c>
       <c r="DS41" t="n" s="10">
-        <v>66.79</v>
+        <v>67.337</v>
       </c>
       <c r="DT41" t="n" s="10">
-        <v>63.484</v>
-      </c>
-      <c r="DU41" t="s" s="10">
-        <v>43</v>
+        <v>61.278</v>
+      </c>
+      <c r="DU41" t="n" s="10">
+        <v>55.253</v>
       </c>
       <c r="DV41" t="s" s="10">
         <v>43</v>
@@ -16049,7 +16049,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:44:12&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:47:06&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>